--- a/com.TimesheetManagementToolProject/src/test/resources/TestData.xlsx
+++ b/com.TimesheetManagementToolProject/src/test/resources/TestData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QSP\git\QWA_SJFVD-M2-Repository\com.AutomationFramework\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QSP\git\QWA_SJFVD-M2-Repository\com.TimesheetManagementToolProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E8455B-2B4B-43DD-AD81-6845A8E92502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB08015-911C-4264-BED0-78A4288EDC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{4CF50120-9A75-47FB-B6BE-FE93F633F674}"/>
   </bookViews>
   <sheets>
     <sheet name="Valid" sheetId="1" r:id="rId1"/>
-    <sheet name="Invalid" sheetId="2" r:id="rId2"/>
+    <sheet name="Userdata" sheetId="3" r:id="rId2"/>
+    <sheet name="Invalid" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Username</t>
   </si>
@@ -68,16 +69,42 @@
   </si>
   <si>
     <t>Manager5</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Manjunath</t>
+  </si>
+  <si>
+    <t>Manju@123</t>
+  </si>
+  <si>
+    <t>Manju</t>
+  </si>
+  <si>
+    <t>Nath</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,15 +148,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,9 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9ED5859-CA05-4A29-A683-0E1E42D88ACE}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -476,10 +504,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF11A3B-FE8D-4A71-9B25-5FD27E8A1C0F}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{DA730825-E00C-4396-97D9-DD47451B3E20}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B18460-DFAA-4FC2-94CA-6A5743B95209}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/com.TimesheetManagementToolProject/src/test/resources/TestData.xlsx
+++ b/com.TimesheetManagementToolProject/src/test/resources/TestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QSP\git\QWA_SJFVD-M2-Repository\com.TimesheetManagementToolProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB08015-911C-4264-BED0-78A4288EDC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA2831A-40E6-4EF9-B880-49FE86C77ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{4CF50120-9A75-47FB-B6BE-FE93F633F674}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{4CF50120-9A75-47FB-B6BE-FE93F633F674}"/>
   </bookViews>
   <sheets>
     <sheet name="Valid" sheetId="1" r:id="rId1"/>
     <sheet name="Userdata" sheetId="3" r:id="rId2"/>
-    <sheet name="Invalid" sheetId="2" r:id="rId3"/>
+    <sheet name="Customer" sheetId="4" r:id="rId3"/>
+    <sheet name="Invalid" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Username</t>
   </si>
@@ -87,6 +88,18 @@
   </si>
   <si>
     <t>Nath</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Yes bank</t>
+  </si>
+  <si>
+    <t>Timesheet Management tool</t>
   </si>
 </sst>
 </file>
@@ -507,7 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF11A3B-FE8D-4A71-9B25-5FD27E8A1C0F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -556,6 +569,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D1FE54-E538-44A2-927A-123F027CC839}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B18460-DFAA-4FC2-94CA-6A5743B95209}">
   <dimension ref="A1:B6"/>
   <sheetViews>
